--- a/Personality/Big-5/Big5.xlsx
+++ b/Personality/Big-5/Big5.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\Analysis\Personality\Big-5 checking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\Analysis\Personality\Big-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B35D9-6584-4B80-BA0E-0B7E7244DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FC494-B50C-426A-AD56-2658129279D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6BF9CDD5-8E6B-4716-88B8-DDE11F642BE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6BF9CDD5-8E6B-4716-88B8-DDE11F642BE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="omega+efa" sheetId="1" r:id="rId1"/>
-    <sheet name="ars" sheetId="2" r:id="rId2"/>
-    <sheet name="omega" sheetId="3" r:id="rId3"/>
+    <sheet name="omega_value" sheetId="1" r:id="rId1"/>
+    <sheet name="efa" sheetId="4" r:id="rId2"/>
+    <sheet name="ars" sheetId="2" r:id="rId3"/>
+    <sheet name="omega" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,65 +28,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>CO-Grit</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
-    <t>Altruism</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>Sociable</t>
-  </si>
-  <si>
     <t>AG</t>
   </si>
   <si>
-    <t>EXOP</t>
-  </si>
-  <si>
-    <t>ESCO</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>AGOP</t>
-  </si>
-  <si>
     <t>Mix</t>
   </si>
   <si>
     <t>Grit-EX</t>
   </si>
   <si>
-    <t>EXCO</t>
-  </si>
-  <si>
     <t>OP</t>
   </si>
   <si>
@@ -107,12 +69,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Total variance</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>With Grit</t>
   </si>
   <si>
@@ -125,18 +81,9 @@
     <t>Cor.</t>
   </si>
   <si>
-    <t>Delta</t>
-  </si>
-  <si>
     <t>Omega</t>
   </si>
   <si>
-    <t>Non-concentration</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>raw2016</t>
   </si>
   <si>
@@ -150,6 +97,45 @@
   </si>
   <si>
     <t>traits</t>
+  </si>
+  <si>
+    <t>OP-EX</t>
+  </si>
+  <si>
+    <t>EX-OP</t>
+  </si>
+  <si>
+    <t>ES-CO</t>
+  </si>
+  <si>
+    <t>AG-OP</t>
+  </si>
+  <si>
+    <t>OP-AG</t>
+  </si>
+  <si>
+    <t>EX-CO</t>
+  </si>
+  <si>
+    <t>Total prop. var.</t>
+  </si>
+  <si>
+    <t>Factor 1</t>
+  </si>
+  <si>
+    <t>Factor 2</t>
+  </si>
+  <si>
+    <t>Factor 3</t>
+  </si>
+  <si>
+    <t>Factor 4</t>
+  </si>
+  <si>
+    <t>Factor 5</t>
+  </si>
+  <si>
+    <t>Factor 6</t>
   </si>
 </sst>
 </file>
@@ -220,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,20 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,463 +549,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EED8DE-F79F-4840-92FD-8FC82F38E1B2}">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.88671875" style="1"/>
+    <col min="2" max="8" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.39069999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.38290000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.30659999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.78769999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC69516-2B74-4F28-B866-74DE0242624B}">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="14"/>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="14"/>
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
+      <c r="I10" s="1" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>"-"</f>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13">
         <v>70.069999999999993</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="13">
         <v>69.06</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>65.89</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <v>66</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <v>74.23</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="13">
         <v>41.49</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="13">
         <v>65.97</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="13">
         <v>40.61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.81130000000000002</v>
-      </c>
-      <c r="D16" s="11">
-        <f>(C16-B16)*100/B16</f>
-        <v>-6.5753109166282737</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5">
-        <v>0.77149999999999996</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.39069999999999999</v>
-      </c>
-      <c r="H16" s="11">
-        <f>(G16-F16)*100/F16</f>
-        <v>-49.358392741412835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.85129999999999995</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" ref="D17:D20" si="0">(C17-B17)*100/B17</f>
-        <v>0.62257723481734795</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.38290000000000002</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" ref="H17:H20" si="1">(G17-F17)*100/F17</f>
-        <v>-46.507404302877902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>-19.322545255074044</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>0.65649999999999997</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.46450000000000002</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>-29.246001523229239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>17.854346123727474</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>0.61860000000000004</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>-50.436469447138705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.47939999999999999</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.80189999999999995</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>67.271589486858559</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="1"/>
-        <v>9.7380886040679808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:C3"/>
@@ -1038,7 +999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBAE33F-D482-4031-8ADB-3B7045DD9524}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1050,13 +1011,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,11 +1256,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12E676-2B3E-4D80-BC42-AF10D78F65D7}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1307,24 +1268,24 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>0.86839999999999995</v>
@@ -1347,7 +1308,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>0.85129999999999995</v>
@@ -1370,7 +1331,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>0.72919999999999996</v>
@@ -1385,15 +1346,15 @@
         <v>0.46450000000000002</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>0.51080000000000003</v>
@@ -1416,7 +1377,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
         <v>0.47939999999999999</v>

--- a/Personality/Big-5/Big5.xlsx
+++ b/Personality/Big-5/Big5.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\Analysis\Personality\Big-5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FC494-B50C-426A-AD56-2658129279D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6BF9CDD5-8E6B-4716-88B8-DDE11F642BE8}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="omega_value" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="ars" sheetId="2" r:id="rId3"/>
     <sheet name="omega" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>CO-Grit</t>
   </si>
@@ -136,13 +130,25 @@
   </si>
   <si>
     <t>Factor 6</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +158,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,12 +243,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,37 +566,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EED8DE-F79F-4840-92FD-8FC82F38E1B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -695,55 +720,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC69516-2B74-4F28-B866-74DE0242624B}">
-  <dimension ref="A2:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -751,7 +780,7 @@
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -771,7 +800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -781,7 +810,7 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -800,8 +829,20 @@
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -811,7 +852,7 @@
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -830,8 +871,21 @@
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="17">
+        <v>7.2173600000000002</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="O6" s="17">
+        <f>N6</f>
+        <v>0.20619999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -841,7 +895,7 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -860,8 +914,21 @@
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="17">
+        <v>6.3306399999999998</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="O7" s="17">
+        <f>O6+N7</f>
+        <v>0.3871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -871,7 +938,7 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -890,8 +957,21 @@
       <c r="J8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="17">
+        <v>4.1254900000000001</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0.1179</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" ref="O8:O10" si="0">O7+N8</f>
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -901,7 +981,7 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -920,8 +1000,21 @@
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2.9957099999999999</v>
+      </c>
+      <c r="N9" s="17">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.59060000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -931,7 +1024,7 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="15" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -954,34 +1047,47 @@
         <f>"-"</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="18">
+        <v>2.3913899999999999</v>
+      </c>
+      <c r="N10" s="18">
+        <v>6.83E-2</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.65890000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>70.069999999999993</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>69.06</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="16">
         <v>65.89</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>66</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>74.23</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>41.49</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>65.97</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>40.61</v>
       </c>
     </row>
@@ -996,18 +1102,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBAE33F-D482-4031-8ADB-3B7045DD9524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1257,14 +1364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12E676-2B3E-4D80-BC42-AF10D78F65D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
